--- a/我的賣場.xlsx
+++ b/我的賣場.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\個人\Github 專案\Boyd Vocabulary\clash-of-clan-Scheduler\Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github 專用\clash-of-clane-Scheduler\clash-of-clan-Scheduler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8101528C-C4CB-46B7-A711-8078C12A5884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F5EB91-6FFC-4A12-ACBD-8E62A6DC43EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1245" windowWidth="28800" windowHeight="14355" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="POYA 寶雅" sheetId="1" r:id="rId1"/>
@@ -19,18 +19,13 @@
     <sheet name="DAISO 大創" sheetId="4" r:id="rId4"/>
     <sheet name="迪卡儂" sheetId="5" r:id="rId5"/>
     <sheet name="博物館紀錄" sheetId="6" r:id="rId6"/>
-    <sheet name="大全聯" sheetId="7" r:id="rId7"/>
-    <sheet name="麥當勞" sheetId="8" r:id="rId8"/>
-    <sheet name="雲科大" sheetId="9" r:id="rId9"/>
-    <sheet name="日嚐 咖啡" sheetId="10" r:id="rId10"/>
-    <sheet name="小洋蔥" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="269">
   <si>
     <t>品牌</t>
   </si>
@@ -839,87 +834,6 @@
   </si>
   <si>
     <t>展場規劃粗糙,但冷氣很強</t>
-  </si>
-  <si>
-    <t>雞腿</t>
-  </si>
-  <si>
-    <t>2025-12-30</t>
-  </si>
-  <si>
-    <t>好吃</t>
-  </si>
-  <si>
-    <t>店名</t>
-  </si>
-  <si>
-    <t>備註</t>
-  </si>
-  <si>
-    <t>咬一口，頌</t>
-  </si>
-  <si>
-    <t>唐揚雞腿飯</t>
-  </si>
-  <si>
-    <t>170</t>
-  </si>
-  <si>
-    <t>2026-01-01</t>
-  </si>
-  <si>
-    <t>好吃，套餐加70，飲料，炸物，生菜</t>
-  </si>
-  <si>
-    <t>燒肉豬五花</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>肉有醃過</t>
-  </si>
-  <si>
-    <t>咖喱牛肉</t>
-  </si>
-  <si>
-    <t>2026-01-03</t>
-  </si>
-  <si>
-    <t>牛肉好吃，搭配飲品折50元</t>
-  </si>
-  <si>
-    <t>咖喱雞腿</t>
-  </si>
-  <si>
-    <t>炒菇</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>淺培咖啡</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>原價170，餐點折價50。</t>
-  </si>
-  <si>
-    <t>水果茶</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>黑嚕嚕海鮮燉飯</t>
-  </si>
-  <si>
-    <t>炸豬排豆漿麵</t>
-  </si>
-  <si>
-    <t>味增麵</t>
   </si>
 </sst>
 </file>
@@ -984,16 +898,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1505,185 +1416,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="5" width="20" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="4" width="20" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="D4" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M72"/>
@@ -5896,7 +5628,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5952,135 +5684,4 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="4" width="20" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="5" width="20" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>